--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value664.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value664.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.725081511299212</v>
+        <v>1.362450838088989</v>
       </c>
       <c r="B1">
-        <v>2.018397896006746</v>
+        <v>2.270521879196167</v>
       </c>
       <c r="C1">
-        <v>2.030640876623411</v>
+        <v>2.716475486755371</v>
       </c>
       <c r="D1">
-        <v>2.479965584878153</v>
+        <v>3.131510257720947</v>
       </c>
       <c r="E1">
-        <v>3.238277475370352</v>
+        <v>2.308110952377319</v>
       </c>
     </row>
   </sheetData>
